--- a/TestExel/Test.xlsx
+++ b/TestExel/Test.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beyha\eclipse-workspace\JavaBasics\TestExel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590C625A-1422-4A27-81B8-7D070B93EB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4D3E7B82-36B4-47DB-A685-E437A6365E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="960" windowWidth="19050" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19110" windowHeight="9750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -411,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/TestExel/Test.xlsx
+++ b/TestExel/Test.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4D3E7B82-36B4-47DB-A685-E437A6365E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D50B78B0-E300-4DC7-A975-7ECB0AD8DFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="19110" windowHeight="9750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
+  <oleSize ref="A22:I53"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
